--- a/biology/Médecine/Hans_Sloane/Hans_Sloane.xlsx
+++ b/biology/Médecine/Hans_Sloane/Hans_Sloane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hans Sloane, 1er baronnet, né le 16 avril 1660 à Killyleagh dans le comté de Down en Irlande et mort le 11 janvier 1753 à Londres (Chelsea), est un médecin, naturaliste et collectionneur irlandais d'origine écossaise.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père dirige une colonie écossaise fondée par Jacques Ier.
-Dès son jeune âge, Hans Sloane collectionne les objets d'histoire naturelle et d'autres curiosités. Son penchant l'incline à suivre des études de médecine. On l'envoie à Londres où il étudie la botanique, la pharmacopée et la pharmacie. Après quatre ans passés à Londres, il voyage à travers la France et s'arrête notamment à Paris et à Montpellier, avant d'obtenir son titre de docteur en médecine à l'université d'Orange le 27 juillet 1683[1]. Il revient à Londres avec une quantité considérable de plantes et d'autres objets curieux. John Ray utilise de nombreuses plantes de Sloane pour la rédaction de son History of Plants.
-Sloane est bientôt élu à la Royal Society et reçoit le concours de Thomas Sydenham dans son apprentissage de la médecine. En 1687, il devient membre de l'école de médecine. La même année, il part exercer en Jamaïque à la cour du duc d'Albemarle[2]. Mais celui-ci meurt peu après l'arrivée de Sloane : son séjour ne dura que quinze mois mais Sloane récolta tout de même près de 800 nouvelles espèces de plantes, la Jamaïque n'ayant été jamais étudiée auparavant. Il en publie le compte rendu en latin en 1696 et, plus tard, le récit de son voyage A Voyage to the islands Madera, Barbados, Nieves, St Christophers and Jamaica (1707 et 1725), en deux volumes illustrés de gravures noir et blanc[3],[4].
+Dès son jeune âge, Hans Sloane collectionne les objets d'histoire naturelle et d'autres curiosités. Son penchant l'incline à suivre des études de médecine. On l'envoie à Londres où il étudie la botanique, la pharmacopée et la pharmacie. Après quatre ans passés à Londres, il voyage à travers la France et s'arrête notamment à Paris et à Montpellier, avant d'obtenir son titre de docteur en médecine à l'université d'Orange le 27 juillet 1683. Il revient à Londres avec une quantité considérable de plantes et d'autres objets curieux. John Ray utilise de nombreuses plantes de Sloane pour la rédaction de son History of Plants.
+Sloane est bientôt élu à la Royal Society et reçoit le concours de Thomas Sydenham dans son apprentissage de la médecine. En 1687, il devient membre de l'école de médecine. La même année, il part exercer en Jamaïque à la cour du duc d'Albemarle. Mais celui-ci meurt peu après l'arrivée de Sloane : son séjour ne dura que quinze mois mais Sloane récolta tout de même près de 800 nouvelles espèces de plantes, la Jamaïque n'ayant été jamais étudiée auparavant. Il en publie le compte rendu en latin en 1696 et, plus tard, le récit de son voyage A Voyage to the islands Madera, Barbados, Nieves, St Christophers and Jamaica (1707 et 1725), en deux volumes illustrés de gravures noir et blanc,.
 Il devient secrétaire de la Royal Society en 1693 et fut l'éditeur de la revue de la société, Philosophical Transactions, durant vingt ans. Il continue à pratiquer la médecine uniquement auprès des plus riches, nobles ou bourgeois, d'Angleterre.
 En France, il est nommé correspondant de Jacques Cassini à l'Académie royale des sciences le 4 mars 1699, et associé étranger le 27 mars 1709.
 En 1716, Sloane est fait baronnet et est le premier médecin à recevoir ce titre héréditaire. En 1719, il devient président de l'école de médecine, fonction qu'il occupa durant seize ans. En 1722, il devient médecin-général de l'armée britannique et en 1727 médecin du roi George II. En 1727, il succède à Sir Isaac Newton à la présidence de la Royal Society dont il était membre depuis le 21 janvier 1685. Il prend sa retraite à l'âge de 80 ans.
@@ -551,14 +565,15 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">À l'origine du British Museum
-Il acquiert, par legs ou pour effacer certaines dettes, des collections importantes comme le cabinet de curiosités de William Courten en 1701.
+          <t>À l'origine du British Museum</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il acquiert, par legs ou pour effacer certaines dettes, des collections importantes comme le cabinet de curiosités de William Courten en 1701.
 Quand Sloane prend sa retraite en 1741, il installe sa bibliothèque et son cabinet de curiosités dans sa maison de Cheyne Walk à Chelsea. À sa mort, il lègue ses immenses collections constituées de livres, de manuscrits, de gravures, d'images, de médailles, de pièces de monnaie, de sceaux, de camées et d'autres curiosités à la nation, à la condition que le Parlement verse la somme de 20 000 livres sterling, chiffre très faible en regard de la valeur réelle de la collection.
 Le legs est accepté dans ces termes la même année et la collection de Sloane, à laquelle George II ajoute la bibliothèque royale, est ouverte au public à Bloomsbury en 1759.
-Collections ornithologiques
-Ses collections comportaient 1 172 spécimens (des peaux d'oiseaux, des squelettes, des œufs et des nids). Malheureusement, rien ne subsiste de cette collection.
-Herbier
-L'herbier de Sloane est conservé au Musée d'histoire naturelle de Londres qui en a publié le catalogue[5].
 </t>
         </is>
       </c>
@@ -584,13 +599,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Remède ophtalmique</t>
+          <t>Ses collections</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hans Sloane était l'inventeur d'un remède contre les inflammations des yeux, dont la recette, tout d'abord secrète, parut ensuite sous le nom de « remède ophtalmique »:
-«   Le Chevalier Hans Sloane, qui depuis quelque temps a abandonné &amp; la pratique &amp; le séjour de la Ville de Londres, a voulu encore contribuer à l'utilité publique, en publiant le secret d'un Remède fort efficace dans les Inflammations, dans les Faiblesses  et dans d'autres maladies des yeux. Son Ecrit est in 8. Voici sa Recette: Prenez, une once de Tutie préparée ; deux scrupules de Pierre Hématite ; douze grains du meilleur Aloé, et quatre de foudre de Perles, Mettez, tous ces ingrédients dans un Mortier de Marbre ou de Porphyre, &amp; broyez-les exactement avec un Pilon dt la même Pierre, en y mêlant assez, de graisse de Vipère, pour en faire un Liniment, dont on se servira une ou deux fois par jour, en en faisant entrer une petite quantité dans l'œil malade par le moyen d'un pinceau fin. Sans prétendre contefter les vertus de ce Remède, qu'il nous soit permis de remarquer que les évacuations abondantes par le moyen de Saignées, de Véficatoires, de Ventouses, &amp;c. dont Mr. Sloane accompagnait l'usage de son Spécifique »
+          <t>Collections ornithologiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses collections comportaient 1 172 spécimens (des peaux d'oiseaux, des squelettes, des œufs et des nids). Malheureusement, rien ne subsiste de cette collection.
 </t>
         </is>
       </c>
@@ -616,14 +636,87 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Ses collections</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Herbier</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'herbier de Sloane est conservé au Musée d'histoire naturelle de Londres qui en a publié le catalogue.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hans_Sloane</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hans_Sloane</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Remède ophtalmique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hans Sloane était l'inventeur d'un remède contre les inflammations des yeux, dont la recette, tout d'abord secrète, parut ensuite sous le nom de « remède ophtalmique »:
+«   Le Chevalier Hans Sloane, qui depuis quelque temps a abandonné &amp; la pratique &amp; le séjour de la Ville de Londres, a voulu encore contribuer à l'utilité publique, en publiant le secret d'un Remède fort efficace dans les Inflammations, dans les Faiblesses  et dans d'autres maladies des yeux. Son Ecrit est in 8. Voici sa Recette: Prenez, une once de Tutie préparée ; deux scrupules de Pierre Hématite ; douze grains du meilleur Aloé, et quatre de foudre de Perles, Mettez, tous ces ingrédients dans un Mortier de Marbre ou de Porphyre, &amp; broyez-les exactement avec un Pilon dt la même Pierre, en y mêlant assez, de graisse de Vipère, pour en faire un Liniment, dont on se servira une ou deux fois par jour, en en faisant entrer une petite quantité dans l'œil malade par le moyen d'un pinceau fin. Sans prétendre contefter les vertus de ce Remède, qu'il nous soit permis de remarquer que les évacuations abondantes par le moyen de Saignées, de Véficatoires, de Ventouses, &amp;c. dont Mr. Sloane accompagnait l'usage de son Spécifique »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hans_Sloane</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hans_Sloane</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Honneurs et funérailles</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">On a donné son nom à plusieurs lieux du quartier londonien de Chelsea : Sloane Square, Sloane Street et Sloane Gardens, situés dans le district royal de Kensington et Chelsea. Son prénom a servi à baptiser Hans Street, Hans Crescent, Hans Place et Hans Road, dans le même secteur.
 En sciences naturelles, son nom a été donné au papillon de nuit Urania sloanus, au genre botanique Sloanea, un genre d'arbres tropicaux de la famille des Elaeocarpaceae décrit par Linné, et à une espèce de fougères, Saccoloma sloanei, décrite par George Samuel Jenman dans la famille des Dennstaedtiaceae.
-Hans Sloane est enterré le 18 janvier 1753[6] en la vieille église de Chelsea avec cette épitaphe :
+Hans Sloane est enterré le 18 janvier 1753 en la vieille église de Chelsea avec cette épitaphe :
 « In memory of Sir Hans Sloane, Bart, President of the Royal Society and of the College of Physicians, who died in the year of our Lord 1752, the ninety-second year of his age, without least pain of body, and with a conscious serenity of mind ended a virtuous and beneficient life. This monument was erected by his two daughters, Eliza Cadogan and Sarah Stanley »
 Que l'on peut traduire par : 
 « En mémoire de Sir Hans Sloane, Baronnet, Président de la Royal Society et du Collège des Médecins, mort dans l'année 1742 de notre Seigneur dans sa 92e année, qui sans la moindre douleur corporelle, en pleine conscience et l'esprit serein est arrivé au terme d'une vie profitable. Ce monument a été érigé par ses deux filles, Eliza Cadogan et Sarah Stanley. »
